--- a/mapping_spreadsheet/Casrec_Mapping_Document_SupervisionLevel.xlsx
+++ b/mapping_spreadsheet/Casrec_Mapping_Document_SupervisionLevel.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jennifermackown/Documents/work/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jack/OPG/opg-data-casrec-migration-mappings/mapping_spreadsheet/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F577E1C0-6C70-E24D-9D3B-D1BCE2385B9B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{670D80CC-807A-5947-83D2-A6E7785F4EA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="35840" windowHeight="21940" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9040" yWindow="500" windowWidth="45440" windowHeight="27420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="table_definitions" sheetId="4" r:id="rId1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="105" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="65">
   <si>
     <t>table_name</t>
   </si>
@@ -214,7 +214,10 @@
     <t>order</t>
   </si>
   <si>
-    <t>Case, Order No</t>
+    <t>exclude_values = {"col": "Ord Stat", "values": ["Open"]}</t>
+  </si>
+  <si>
+    <t>Case, Order No, Ord Stat</t>
   </si>
 </sst>
 </file>
@@ -563,10 +566,13 @@
   <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:XFD2"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="7" max="7" width="47.33203125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="11" t="s">
@@ -610,8 +616,11 @@
       <c r="F2" s="13" t="s">
         <v>62</v>
       </c>
+      <c r="G2" s="12" t="s">
+        <v>63</v>
+      </c>
       <c r="H2" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
